--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Levy.Spring.030320-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Levy.Spring.030320-1.xlsx_with_dialog_acts.xlsx
@@ -1689,12 +1689,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2067,12 +2067,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2653,12 +2653,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3673,12 +3673,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3757,12 +3757,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4345,12 +4345,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5273,12 +5273,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5315,12 +5315,12 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5693,12 +5693,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6197,12 +6197,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6667,12 +6667,12 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6709,12 +6709,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7343,12 +7343,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8057,12 +8057,12 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8393,12 +8393,12 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8897,12 +8897,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9321,12 +9321,12 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9615,12 +9615,12 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9657,12 +9657,12 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11001,12 +11001,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11421,12 +11421,12 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11631,12 +11631,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11757,12 +11757,12 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12895,12 +12895,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12937,12 +12937,12 @@
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12979,12 +12979,12 @@
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13189,12 +13189,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13231,12 +13231,12 @@
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13357,12 +13357,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13567,12 +13567,12 @@
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14155,12 +14155,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14611,12 +14611,12 @@
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14951,12 +14951,12 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14993,12 +14993,12 @@
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15077,12 +15077,12 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15371,12 +15371,12 @@
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15833,12 +15833,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17093,12 +17093,12 @@
       <c r="H396" t="inlineStr"/>
       <c r="I396" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17135,12 +17135,12 @@
       <c r="H397" t="inlineStr"/>
       <c r="I397" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17807,12 +17807,12 @@
       <c r="H413" t="inlineStr"/>
       <c r="I413" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
